--- a/analysis/MLLS/HSIC_new/VT=5000 init_seed=2 lambda_d=3.0e+05 lr=1.0e-02 epochs=10.xlsx
+++ b/analysis/MLLS/HSIC_new/VT=5000 init_seed=2 lambda_d=3.0e+05 lr=1.0e-02 epochs=10.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">VisProd-EM: test </t>
+          <t xml:space="preserve">VisProd+EM: test </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VisProd+unseen-EM: test </t>
         </is>
       </c>
     </row>
@@ -468,19 +473,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9030484942809852</v>
+        <v>0.7957212381728798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9036407766990291</v>
+        <v>0.8031553398058252</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8885922330097087</v>
+        <v>0.7927184466019418</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7851941747572816</v>
+        <v>0.7395631067961165</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7220873786407767</v>
+        <v>0.6213592233009708</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7327669902912621</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +499,19 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0.3997222222222222</v>
+        <v>0.4277777777777778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3872222222222222</v>
+        <v>0.4311111111111111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6022222222222222</v>
+        <v>0.5786111111111111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6019444444444444</v>
+        <v>0.5766666666666667</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5291666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +521,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9030484942809852</v>
+        <v>0.7957212381728798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6686528497409326</v>
+        <v>0.6281088082901555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6547927461139896</v>
+        <v>0.6240932642487047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6998704663212435</v>
+        <v>0.6645077720207254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6660621761658031</v>
+        <v>0.6005181347150259</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6378238341968911</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +547,19 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.5542666159031796</v>
+        <v>0.5582301776833249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5393929465282241</v>
+        <v>0.5584923622068065</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6816430623534854</v>
+        <v>0.6492608111232274</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6565650136164302</v>
+        <v>0.5981793133255896</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6145423946145215</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +570,17 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.5722222222222222</v>
+        <v>0.5891666666666666</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.63</v>
+        <v>0.6030555555555556</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6136111111111111</v>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5833333333333334</v>
       </c>
     </row>
   </sheetData>
